--- a/biology/Botanique/Mentha_asiatica/Mentha_asiatica.xlsx
+++ b/biology/Botanique/Mentha_asiatica/Mentha_asiatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mentha asiatica est une espèce de plante de la famille des Lamiaceae.
 On trouve parfois l'espèce nommée « menthe asiatique » en français. Cette appellation provient sans doute d'une traduction littérale du nom scientifique. Elle est à éviter : ce n'est pas la seule menthe d'origine asiatique.
-M. asiatica Boriss. est conspécifique avec Mentha longifolia par les marqueurs AFLP[1] si bien que Tucker et Naczi[2] n'en reconnaissent pas l'existence.
+M. asiatica Boriss. est conspécifique avec Mentha longifolia par les marqueurs AFLP si bien que Tucker et Naczi n'en reconnaissent pas l'existence.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Répartition, habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mentha asiatica se rencontre de l'Asie centrale jusqu'à la Chine sur les berges de cours d'eau, les remblais humides, du niveau de la mer jusqu'à 3 100 mètres d’altitude.
 </t>
@@ -544,7 +558,9 @@
           <t>Phytothérapie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Utilisation :
 l'huile essentielle est antiseptique (traitement des fièvres), toxique à haute dose ;
